--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.82236084294145</v>
+        <v>8.788950666666667</v>
       </c>
       <c r="H2">
-        <v>4.82236084294145</v>
+        <v>26.366852</v>
       </c>
       <c r="I2">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="J2">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.90612446576004</v>
+        <v>4.048438999999999</v>
       </c>
       <c r="N2">
-        <v>3.90612446576004</v>
+        <v>12.145317</v>
       </c>
       <c r="O2">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="P2">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="Q2">
-        <v>18.83674167133681</v>
+        <v>35.58153064800933</v>
       </c>
       <c r="R2">
-        <v>18.83674167133681</v>
+        <v>320.233775832084</v>
       </c>
       <c r="S2">
-        <v>0.001272500686818474</v>
+        <v>0.002239581602712613</v>
       </c>
       <c r="T2">
-        <v>0.001272500686818474</v>
+        <v>0.002239581602712614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.82236084294145</v>
+        <v>8.788950666666667</v>
       </c>
       <c r="H3">
-        <v>4.82236084294145</v>
+        <v>26.366852</v>
       </c>
       <c r="I3">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="J3">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2368631582548</v>
+        <v>11.27122833333333</v>
       </c>
       <c r="N3">
-        <v>11.2368631582548</v>
+        <v>33.813685</v>
       </c>
       <c r="O3">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="P3">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="Q3">
-        <v>54.18820889185934</v>
+        <v>99.06226977440222</v>
       </c>
       <c r="R3">
-        <v>54.18820889185934</v>
+        <v>891.56042796962</v>
       </c>
       <c r="S3">
-        <v>0.00366064015929462</v>
+        <v>0.006235202164416084</v>
       </c>
       <c r="T3">
-        <v>0.00366064015929462</v>
+        <v>0.006235202164416084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.82236084294145</v>
+        <v>8.788950666666667</v>
       </c>
       <c r="H4">
-        <v>4.82236084294145</v>
+        <v>26.366852</v>
       </c>
       <c r="I4">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="J4">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.14807210075798</v>
+        <v>3.219226333333333</v>
       </c>
       <c r="N4">
-        <v>3.14807210075798</v>
+        <v>9.657679</v>
       </c>
       <c r="O4">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920677</v>
       </c>
       <c r="P4">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920676</v>
       </c>
       <c r="Q4">
-        <v>15.18113962945171</v>
+        <v>28.29362142850089</v>
       </c>
       <c r="R4">
-        <v>15.18113962945171</v>
+        <v>254.642592856508</v>
       </c>
       <c r="S4">
-        <v>0.001025549478897403</v>
+        <v>0.00178086419755894</v>
       </c>
       <c r="T4">
-        <v>0.001025549478897403</v>
+        <v>0.00178086419755894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.82236084294145</v>
+        <v>8.788950666666667</v>
       </c>
       <c r="H5">
-        <v>4.82236084294145</v>
+        <v>26.366852</v>
       </c>
       <c r="I5">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="J5">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.23291114727969</v>
+        <v>4.235549333333334</v>
       </c>
       <c r="N5">
-        <v>4.23291114727969</v>
+        <v>12.706648</v>
       </c>
       <c r="O5">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="P5">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="Q5">
-        <v>20.41262496829195</v>
+        <v>37.22603413689956</v>
       </c>
       <c r="R5">
-        <v>20.41262496829195</v>
+        <v>335.0343072320961</v>
       </c>
       <c r="S5">
-        <v>0.001378958194847721</v>
+        <v>0.002343090352680382</v>
       </c>
       <c r="T5">
-        <v>0.001378958194847721</v>
+        <v>0.002343090352680381</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.82236084294145</v>
+        <v>8.788950666666667</v>
       </c>
       <c r="H6">
-        <v>4.82236084294145</v>
+        <v>26.366852</v>
       </c>
       <c r="I6">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="J6">
-        <v>0.007648530660570924</v>
+        <v>0.01314873532998867</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9542975877222321</v>
+        <v>0.9942166666666665</v>
       </c>
       <c r="N6">
-        <v>0.9542975877222321</v>
+        <v>2.98265</v>
       </c>
       <c r="O6">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="P6">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="Q6">
-        <v>4.601967319545175</v>
+        <v>8.738121235311111</v>
       </c>
       <c r="R6">
-        <v>4.601967319545175</v>
+        <v>78.6430911178</v>
       </c>
       <c r="S6">
-        <v>0.0003108821407127053</v>
+        <v>0.0005499970126206484</v>
       </c>
       <c r="T6">
-        <v>0.0003108821407127053</v>
+        <v>0.0005499970126206485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>623.873865261579</v>
+        <v>657.2611183333333</v>
       </c>
       <c r="H7">
-        <v>623.873865261579</v>
+        <v>1971.783355</v>
       </c>
       <c r="I7">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="J7">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.90612446576004</v>
+        <v>4.048438999999999</v>
       </c>
       <c r="N7">
-        <v>3.90612446576004</v>
+        <v>12.145317</v>
       </c>
       <c r="O7">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="P7">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="Q7">
-        <v>2436.928968646536</v>
+        <v>2660.881544644281</v>
       </c>
       <c r="R7">
-        <v>2436.928968646536</v>
+        <v>23947.93390179853</v>
       </c>
       <c r="S7">
-        <v>0.1646247445782635</v>
+        <v>0.1674818717984594</v>
       </c>
       <c r="T7">
-        <v>0.1646247445782635</v>
+        <v>0.1674818717984594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>623.873865261579</v>
+        <v>657.2611183333333</v>
       </c>
       <c r="H8">
-        <v>623.873865261579</v>
+        <v>1971.783355</v>
       </c>
       <c r="I8">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="J8">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.2368631582548</v>
+        <v>11.27122833333333</v>
       </c>
       <c r="N8">
-        <v>11.2368631582548</v>
+        <v>33.813685</v>
       </c>
       <c r="O8">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="P8">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="Q8">
-        <v>7010.385251955857</v>
+        <v>7408.14013935702</v>
       </c>
       <c r="R8">
-        <v>7010.385251955857</v>
+        <v>66673.26125421317</v>
       </c>
       <c r="S8">
-        <v>0.4735808455424258</v>
+        <v>0.4662850097863639</v>
       </c>
       <c r="T8">
-        <v>0.4735808455424258</v>
+        <v>0.4662850097863639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>623.873865261579</v>
+        <v>657.2611183333333</v>
       </c>
       <c r="H9">
-        <v>623.873865261579</v>
+        <v>1971.783355</v>
       </c>
       <c r="I9">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="J9">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.14807210075798</v>
+        <v>3.219226333333333</v>
       </c>
       <c r="N9">
-        <v>3.14807210075798</v>
+        <v>9.657679</v>
       </c>
       <c r="O9">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920677</v>
       </c>
       <c r="P9">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920676</v>
       </c>
       <c r="Q9">
-        <v>1963.99990962202</v>
+        <v>2115.872300014783</v>
       </c>
       <c r="R9">
-        <v>1963.99990962202</v>
+        <v>19042.85070013304</v>
       </c>
       <c r="S9">
-        <v>0.1326764085589373</v>
+        <v>0.1331777635897584</v>
       </c>
       <c r="T9">
-        <v>0.1326764085589373</v>
+        <v>0.1331777635897584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>623.873865261579</v>
+        <v>657.2611183333333</v>
       </c>
       <c r="H10">
-        <v>623.873865261579</v>
+        <v>1971.783355</v>
       </c>
       <c r="I10">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="J10">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.23291114727969</v>
+        <v>4.235549333333334</v>
       </c>
       <c r="N10">
-        <v>4.23291114727969</v>
+        <v>12.706648</v>
       </c>
       <c r="O10">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="P10">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="Q10">
-        <v>2640.802638762205</v>
+        <v>2783.861891582671</v>
       </c>
       <c r="R10">
-        <v>2640.802638762205</v>
+        <v>25054.75702424404</v>
       </c>
       <c r="S10">
-        <v>0.1783972637205288</v>
+        <v>0.1752225315588018</v>
       </c>
       <c r="T10">
-        <v>0.1783972637205288</v>
+        <v>0.1752225315588018</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>623.873865261579</v>
+        <v>657.2611183333333</v>
       </c>
       <c r="H11">
-        <v>623.873865261579</v>
+        <v>1971.783355</v>
       </c>
       <c r="I11">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="J11">
-        <v>0.9894984100508581</v>
+        <v>0.983297416884355</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9542975877222321</v>
+        <v>0.9942166666666665</v>
       </c>
       <c r="N11">
-        <v>0.9542975877222321</v>
+        <v>2.98265</v>
       </c>
       <c r="O11">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="P11">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="Q11">
-        <v>595.3613246620697</v>
+        <v>653.4599581989721</v>
       </c>
       <c r="R11">
-        <v>595.3613246620697</v>
+        <v>5881.139623790749</v>
       </c>
       <c r="S11">
-        <v>0.04021914765070275</v>
+        <v>0.04113024015097137</v>
       </c>
       <c r="T11">
-        <v>0.04021914765070275</v>
+        <v>0.04113024015097137</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.764740776765258</v>
+        <v>0.2157786666666667</v>
       </c>
       <c r="H12">
-        <v>0.764740776765258</v>
+        <v>0.647336</v>
       </c>
       <c r="I12">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="J12">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.90612446576004</v>
+        <v>4.048438999999999</v>
       </c>
       <c r="N12">
-        <v>3.90612446576004</v>
+        <v>12.145317</v>
       </c>
       <c r="O12">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="P12">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="Q12">
-        <v>2.987172658087111</v>
+        <v>0.8735667695013332</v>
       </c>
       <c r="R12">
-        <v>2.987172658087111</v>
+        <v>7.862100925511999</v>
       </c>
       <c r="S12">
-        <v>0.0002017960072598615</v>
+        <v>5.498425812734763E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002017960072598615</v>
+        <v>5.498425812734764E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.764740776765258</v>
+        <v>0.2157786666666667</v>
       </c>
       <c r="H13">
-        <v>0.764740776765258</v>
+        <v>0.647336</v>
       </c>
       <c r="I13">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="J13">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.2368631582548</v>
+        <v>11.27122833333333</v>
       </c>
       <c r="N13">
-        <v>11.2368631582548</v>
+        <v>33.813685</v>
       </c>
       <c r="O13">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="P13">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="Q13">
-        <v>8.593287460048687</v>
+        <v>2.432090621462222</v>
       </c>
       <c r="R13">
-        <v>8.593287460048687</v>
+        <v>21.88881559316</v>
       </c>
       <c r="S13">
-        <v>0.0005805125103764565</v>
+        <v>0.0001530812562798339</v>
       </c>
       <c r="T13">
-        <v>0.0005805125103764565</v>
+        <v>0.0001530812562798339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.764740776765258</v>
+        <v>0.2157786666666667</v>
       </c>
       <c r="H14">
-        <v>0.764740776765258</v>
+        <v>0.647336</v>
       </c>
       <c r="I14">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="J14">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.14807210075798</v>
+        <v>3.219226333333333</v>
       </c>
       <c r="N14">
-        <v>3.14807210075798</v>
+        <v>9.657679</v>
       </c>
       <c r="O14">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920677</v>
       </c>
       <c r="P14">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920676</v>
       </c>
       <c r="Q14">
-        <v>2.407459103646695</v>
+        <v>0.6946403659048889</v>
       </c>
       <c r="R14">
-        <v>2.407459103646695</v>
+        <v>6.251763293144</v>
       </c>
       <c r="S14">
-        <v>0.0001626339319362975</v>
+        <v>4.372222767401334E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001626339319362975</v>
+        <v>4.372222767401333E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.764740776765258</v>
+        <v>0.2157786666666667</v>
       </c>
       <c r="H15">
-        <v>0.764740776765258</v>
+        <v>0.647336</v>
       </c>
       <c r="I15">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="J15">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.23291114727969</v>
+        <v>4.235549333333334</v>
       </c>
       <c r="N15">
-        <v>4.23291114727969</v>
+        <v>12.706648</v>
       </c>
       <c r="O15">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="P15">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="Q15">
-        <v>3.23707975874899</v>
+        <v>0.9139411877475557</v>
       </c>
       <c r="R15">
-        <v>3.23707975874899</v>
+        <v>8.225470689728001</v>
       </c>
       <c r="S15">
-        <v>0.0002186782771758392</v>
+        <v>5.752551486020051E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002186782771758392</v>
+        <v>5.75255148602005E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.764740776765258</v>
+        <v>0.2157786666666667</v>
       </c>
       <c r="H16">
-        <v>0.764740776765258</v>
+        <v>0.647336</v>
       </c>
       <c r="I16">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="J16">
-        <v>0.001212921112496043</v>
+        <v>0.0003228163048654251</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9542975877222321</v>
+        <v>0.9942166666666665</v>
       </c>
       <c r="N16">
-        <v>0.9542975877222321</v>
+        <v>2.98265</v>
       </c>
       <c r="O16">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="P16">
-        <v>0.04064599522563717</v>
+        <v>0.04182889067409059</v>
       </c>
       <c r="Q16">
-        <v>0.7297902784999116</v>
+        <v>0.2145307467111111</v>
       </c>
       <c r="R16">
-        <v>0.7297902784999116</v>
+        <v>1.9307767204</v>
       </c>
       <c r="S16">
-        <v>4.93003857475887E-05</v>
+        <v>1.350304792402977E-05</v>
       </c>
       <c r="T16">
-        <v>4.93003857475887E-05</v>
+        <v>1.350304792402977E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.03409902742375</v>
+        <v>0.8423506666666668</v>
       </c>
       <c r="H17">
-        <v>1.03409902742375</v>
+        <v>2.527052</v>
       </c>
       <c r="I17">
-        <v>0.001640138176074925</v>
+        <v>0.001260201176580296</v>
       </c>
       <c r="J17">
-        <v>0.001640138176074925</v>
+        <v>0.001260201176580296</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.90612446576004</v>
+        <v>4.048438999999999</v>
       </c>
       <c r="N17">
-        <v>3.90612446576004</v>
+        <v>12.145317</v>
       </c>
       <c r="O17">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="P17">
-        <v>0.1663719142002483</v>
+        <v>0.1703267688113503</v>
       </c>
       <c r="Q17">
-        <v>4.039319511038572</v>
+        <v>3.410205290609333</v>
       </c>
       <c r="R17">
-        <v>4.039319511038572</v>
+        <v>30.691847615484</v>
       </c>
       <c r="S17">
-        <v>0.0002728729279064891</v>
+        <v>0.0002146459944591837</v>
       </c>
       <c r="T17">
-        <v>0.0002728729279064891</v>
+        <v>0.0002146459944591837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.03409902742375</v>
+        <v>0.8423506666666668</v>
       </c>
       <c r="H18">
-        <v>1.03409902742375</v>
+        <v>2.527052</v>
       </c>
       <c r="I18">
-        <v>0.001640138176074925</v>
+        <v>0.001260201176580296</v>
       </c>
       <c r="J18">
-        <v>0.001640138176074925</v>
+        <v>0.001260201176580296</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.2368631582548</v>
+        <v>11.27122833333333</v>
       </c>
       <c r="N18">
-        <v>11.2368631582548</v>
+        <v>33.813685</v>
       </c>
       <c r="O18">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="P18">
-        <v>0.478606979790988</v>
+        <v>0.4742054659960562</v>
       </c>
       <c r="Q18">
-        <v>11.62002926324506</v>
+        <v>9.494326700735558</v>
       </c>
       <c r="R18">
-        <v>11.62002926324506</v>
+        <v>85.44894030662</v>
       </c>
       <c r="S18">
-        <v>0.0007849815788911193</v>
+        <v>0.0005975942861890375</v>
       </c>
       <c r="T18">
-        <v>0.0007849815788911193</v>
+        <v>0.0005975942861890375</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.03409902742375</v>
+        <v>0.8423506666666668</v>
       </c>
       <c r="H19">
-        <v>1.03409902742375</v>
+        <v>2.527052</v>
       </c>
       <c r="I19">
-        <v>0.001640138176074925</v>
+        <v>0.001260201176580296</v>
       </c>
       <c r="J19">
-        <v>0.001640138176074925</v>
+        <v>0.001260201176580296</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.14807210075798</v>
+        <v>3.219226333333333</v>
       </c>
       <c r="N19">
-        <v>3.14807210075798</v>
+        <v>9.657679</v>
       </c>
       <c r="O19">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920677</v>
       </c>
       <c r="P19">
-        <v>0.134084509091953</v>
+        <v>0.1354399607920676</v>
       </c>
       <c r="Q19">
-        <v>3.255418297653669</v>
+        <v>2.711717448034223</v>
       </c>
       <c r="R19">
-        <v>3.255418297653669</v>
+        <v>24.405457032308</v>
       </c>
       <c r="S19">
-        <v>0.0002199171221819775</v>
+        <v>0.0001706815979461528</v>
       </c>
       <c r="T19">
-        <v>0.0002199171221819775</v>
+        <v>0.0001706815979461528</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.03409902742375</v>
+        <v>0.8423506666666668</v>
       </c>
       <c r="H20">
-        <v>1.03409902742375</v>
+        <v>2.527052</v>
       </c>
       <c r="I20">
-        <v>0.001640138176074925</v>
+        <v>0.001260201176580296</v>
       </c>
       <c r="J20">
-        <v>0.001640138176074925</v>
+        <v>0.001260201176580296</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.23291114727969</v>
+        <v>4.235549333333334</v>
       </c>
       <c r="N20">
-        <v>4.23291114727969</v>
+        <v>12.706648</v>
       </c>
       <c r="O20">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="P20">
-        <v>0.1802906016911735</v>
+        <v>0.1781989137264352</v>
       </c>
       <c r="Q20">
-        <v>4.377249300573077</v>
+        <v>3.56781780463289</v>
       </c>
       <c r="R20">
-        <v>4.377249300573077</v>
+        <v>32.11036024169601</v>
       </c>
       <c r="S20">
-        <v>0.0002957014986212121</v>
+        <v>0.0002245664807433844</v>
       </c>
       <c r="T20">
-        <v>0.0002957014986212121</v>
+        <v>0.0002245664807433843</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8423506666666668</v>
+      </c>
+      <c r="H21">
+        <v>2.527052</v>
+      </c>
+      <c r="I21">
+        <v>0.001260201176580296</v>
+      </c>
+      <c r="J21">
+        <v>0.001260201176580296</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9942166666666665</v>
+      </c>
+      <c r="N21">
+        <v>2.98265</v>
+      </c>
+      <c r="O21">
+        <v>0.04182889067409059</v>
+      </c>
+      <c r="P21">
+        <v>0.04182889067409059</v>
+      </c>
+      <c r="Q21">
+        <v>0.8374790719777778</v>
+      </c>
+      <c r="R21">
+        <v>7.5373116478</v>
+      </c>
+      <c r="S21">
+        <v>5.271281724253753E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.271281724253753E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.317353333333333</v>
+      </c>
+      <c r="H22">
+        <v>3.95206</v>
+      </c>
+      <c r="I22">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="J22">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.048438999999999</v>
+      </c>
+      <c r="N22">
+        <v>12.145317</v>
+      </c>
+      <c r="O22">
+        <v>0.1703267688113503</v>
+      </c>
+      <c r="P22">
+        <v>0.1703267688113503</v>
+      </c>
+      <c r="Q22">
+        <v>5.333224611446666</v>
+      </c>
+      <c r="R22">
+        <v>47.99902150302</v>
+      </c>
+      <c r="S22">
+        <v>0.0003356851575916765</v>
+      </c>
+      <c r="T22">
+        <v>0.0003356851575916765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.317353333333333</v>
+      </c>
+      <c r="H23">
+        <v>3.95206</v>
+      </c>
+      <c r="I23">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="J23">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.27122833333333</v>
+      </c>
+      <c r="N23">
+        <v>33.813685</v>
+      </c>
+      <c r="O23">
+        <v>0.4742054659960562</v>
+      </c>
+      <c r="P23">
+        <v>0.4742054659960562</v>
+      </c>
+      <c r="Q23">
+        <v>14.84819021567778</v>
+      </c>
+      <c r="R23">
+        <v>133.6337119411</v>
+      </c>
+      <c r="S23">
+        <v>0.0009345785028073215</v>
+      </c>
+      <c r="T23">
+        <v>0.0009345785028073213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.317353333333333</v>
+      </c>
+      <c r="H24">
+        <v>3.95206</v>
+      </c>
+      <c r="I24">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="J24">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.219226333333333</v>
+      </c>
+      <c r="N24">
+        <v>9.657679</v>
+      </c>
+      <c r="O24">
+        <v>0.1354399607920677</v>
+      </c>
+      <c r="P24">
+        <v>0.1354399607920676</v>
+      </c>
+      <c r="Q24">
+        <v>4.240858540971111</v>
+      </c>
+      <c r="R24">
+        <v>38.16772686874</v>
+      </c>
+      <c r="S24">
+        <v>0.0002669291791300981</v>
+      </c>
+      <c r="T24">
+        <v>0.000266929179130098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.03409902742375</v>
-      </c>
-      <c r="H21">
-        <v>1.03409902742375</v>
-      </c>
-      <c r="I21">
-        <v>0.001640138176074925</v>
-      </c>
-      <c r="J21">
-        <v>0.001640138176074925</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.9542975877222321</v>
-      </c>
-      <c r="N21">
-        <v>0.9542975877222321</v>
-      </c>
-      <c r="O21">
-        <v>0.04064599522563717</v>
-      </c>
-      <c r="P21">
-        <v>0.04064599522563717</v>
-      </c>
-      <c r="Q21">
-        <v>0.9868382073363909</v>
-      </c>
-      <c r="R21">
-        <v>0.9868382073363909</v>
-      </c>
-      <c r="S21">
-        <v>6.666504847412665E-05</v>
-      </c>
-      <c r="T21">
-        <v>6.666504847412665E-05</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.317353333333333</v>
+      </c>
+      <c r="H25">
+        <v>3.95206</v>
+      </c>
+      <c r="I25">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="J25">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.235549333333334</v>
+      </c>
+      <c r="N25">
+        <v>12.706648</v>
+      </c>
+      <c r="O25">
+        <v>0.1781989137264352</v>
+      </c>
+      <c r="P25">
+        <v>0.1781989137264352</v>
+      </c>
+      <c r="Q25">
+        <v>5.579715032764446</v>
+      </c>
+      <c r="R25">
+        <v>50.21743529488</v>
+      </c>
+      <c r="S25">
+        <v>0.0003511998193494631</v>
+      </c>
+      <c r="T25">
+        <v>0.000351199819349463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.317353333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.95206</v>
+      </c>
+      <c r="I26">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="J26">
+        <v>0.001970830304210568</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.9942166666666665</v>
+      </c>
+      <c r="N26">
+        <v>2.98265</v>
+      </c>
+      <c r="O26">
+        <v>0.04182889067409059</v>
+      </c>
+      <c r="P26">
+        <v>0.04182889067409059</v>
+      </c>
+      <c r="Q26">
+        <v>1.309734639888889</v>
+      </c>
+      <c r="R26">
+        <v>11.787611759</v>
+      </c>
+      <c r="S26">
+        <v>8.243764533200854E-05</v>
+      </c>
+      <c r="T26">
+        <v>8.243764533200853E-05</v>
       </c>
     </row>
   </sheetData>
